--- a/va_facility_data_2025-02-20/Edward Hines Junior Hospital - Facility Data.xlsx"; filename*=UTF-8''Edward%20Hines%20Junior%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Edward Hines Junior Hospital - Facility Data.xlsx"; filename*=UTF-8''Edward%20Hines%20Junior%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rcd426857afd64165a342c2a03e4306b5"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R383b482a277f4b31bc8d4ea5c0030212"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R3215d8c9a8fc41b0b343d2e834f30f51"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R6dc337a88ae442fb89bc5575a161bcdf"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdd64b345231546068fd1ea043a930fc3"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R69d0c9851fd4407095ea49473fe04664"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R98e1352b899b4a70ae22aeca3cfa165f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R09a58ff8184d4de3b441f4e6c880273b"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R98d4e808817449829ef2addda923927b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Refdbf20e208545d79dd45dbe76e5c993"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcafab90209f9458ba226b904df15e9a2"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R15cc0a4f2d1c404ebe3471571c35db9e"/>
   </x:sheets>
 </x:workbook>
 </file>
